--- a/doc/20170612/金沙绿岛栏杆尺寸.xlsx
+++ b/doc/20170612/金沙绿岛栏杆尺寸.xlsx
@@ -146,18 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扶手：长度*110高度*140厚度（单位：mm）*11根</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180*180*1550*3个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：                                                                             1、栏杆材料必须为福建606优质天然花岗岩，需颜色保持一致，无大碳裂缝                                                               2、以上提供数据均为净坑长度需要在栏板两端分别加2公分进槽部分        3、发货时按照尺寸标编号打包                                       4、按照提供&lt;&lt;金沙绿岛栏板布局&gt;&gt;cad图纸栏杆内侧雕花外侧双菱形线条      5、斜栏杆坡度26度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,11 +154,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>寸子（上）：（中寸300*150高度 边寸200*150高度）*12组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（200*100）*12组</t>
+    <t>边柱：180*180*1400*2个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶手：长度*100高度*140厚度（单位：mm）*11根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -178,7 +166,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>边柱：180*180*1400*2个</t>
+    <t>中柱：180*180*1550*3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寸子（上）：（中寸300*150高度 边寸200*150高度）*12套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（200*100）*12套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：                                                                             1、栏杆材料必须为福建606优质天然花岗岩，需颜色保持一致，无大碳斑、裂缝                                                               2、以上提供数据均为净坑长度需要在栏板两端分别加2公分进槽部分        3、发货时按照尺寸标编号打包                                       4、按照提供&lt;&lt;金沙绿岛栏板布局&gt;&gt;cad图纸栏杆内侧雕花外侧双菱形线条      5、斜栏杆坡度26度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,7 +707,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+      <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24">
@@ -762,7 +762,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25">
@@ -915,8 +915,8 @@
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="20.25">
-      <c r="A16" s="12" t="s">
-        <v>25</v>
+      <c r="A16" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -935,7 +935,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="5"/>
@@ -943,7 +943,7 @@
     <row r="19" spans="1:4" ht="20.25">
       <c r="A19" s="7"/>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="5"/>
@@ -951,14 +951,14 @@
     <row r="20" spans="1:4" ht="20.25">
       <c r="A20" s="7"/>
       <c r="B20" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="20.25">
       <c r="A21" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -969,12 +969,12 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
